--- a/ExplorerFund/operation/strategy_update/sc/SC运维事项确认表.xlsx
+++ b/ExplorerFund/operation/strategy_update/sc/SC运维事项确认表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -36,7 +36,7 @@
   </si>
   <si>
     <r>
-      <t>(ok)1.</t>
+      <t>2017/4</t>
     </r>
     <r>
       <rPr>
@@ -46,8 +46,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">移除平仓策略
-</t>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -57,55 +56,25 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(ok)2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查仓位</t>
+      <t>4</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(ok)1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">移除平仓策略
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(ok_2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查仓位</t>
-    </r>
+    <t>(ok)1.更新so
+(ok)2.so名字变了，更新配置
+(ok)3.更新仓位文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ok)1.主力合约换月
+(ok)2.更新so
+(ok)3.so名字变了，更新配置
+(ok)4.更新pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日收市仓位检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +112,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +123,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -202,9 +177,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -526,9 +503,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
-      <c r="A2" s="5">
-        <v>42818</v>
+    <row r="2" spans="1:4" ht="41.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -539,6 +516,14 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -549,16 +534,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
   </cols>
@@ -577,12 +562,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
+    <row r="2" spans="1:4" ht="57" customHeight="1">
       <c r="A2" s="5">
-        <v>42818</v>
+        <v>42829</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -590,6 +575,14 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
